--- a/data/PptoComercial_2024_Pets.xlsx
+++ b/data/PptoComercial_2024_Pets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negea\Desktop\GX PPTO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A65CE-60DF-4F6A-8273-B6E957998148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA7E9F-B8E0-4787-899E-D1B4B8554161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
   <dimension ref="A1:DJ999"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
